--- a/data/file.xlsx
+++ b/data/file.xlsx
@@ -1,17 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="worksheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="worksheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>authorityID</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>dynasty</t>
+  </si>
+  <si>
+    <t>districtHistorical</t>
+  </si>
+  <si>
+    <t>健馱邏國</t>
+  </si>
+  <si>
+    <t>PL000000049232</t>
+  </si>
+  <si>
+    <t>71.5</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>唐</t>
+  </si>
+  <si>
+    <t>姑臧</t>
+  </si>
+  <si>
+    <t>PL000000045043</t>
+  </si>
+  <si>
+    <t>102.6438</t>
+  </si>
+  <si>
+    <t>37.9272</t>
+  </si>
+  <si>
+    <t>唐_隴右道</t>
+  </si>
+  <si>
+    <t>西域</t>
+  </si>
+  <si>
+    <t>PL000000055436</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>慣用名</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -353,125 +421,81 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>authorityID</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>lat</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>dynasty</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>districtHistorical</t>
-        </is>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>健馱邏國</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>PL000000049232</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>71.5</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>唐</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s"/>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>姑臧</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>PL000000045043</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>102.6438</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>37.9272</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>唐</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>唐_隴右道</t>
-        </is>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>西域</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>PL000000055436</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>慣用名</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
